--- a/3week/4/4/Графики.xlsx
+++ b/3week/4/4/Графики.xlsx
@@ -387,7 +387,7 @@
             <c:forward val="0"/>
             <c:backward val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -765,7 +765,7 @@
             <c:forward val="0"/>
             <c:backward val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
